--- a/input_data/data_errors_2/3_cenarios_e_referencia_temporal/cenarios.xlsx
+++ b/input_data/data_errors_2/3_cenarios_e_referencia_temporal/cenarios.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>nome</t>
   </si>
@@ -28,7 +28,8 @@
     <t>Otimista</t>
   </si>
   <si>
-    <t>Este cenário representa uma visão mais otimista, sendo baseado em um menor crescimento populacional, menor desmatamento, menor consumo, etc.</t>
+    <t>Este cenário representa uma visão mais 
+otimista, sendo baseado em um menor crescimento populacional, menor desmatamento, menor consumo, etc.</t>
   </si>
   <si>
     <t>O</t>
@@ -37,10 +38,10 @@
     <t>Pessimista</t>
   </si>
   <si>
-    <t>Este cenário representa uma visão mais pessimista, sendo baseado em um maior crescimento populacional, maior desmatamento, maior consumo etc.</t>
+    <t>P</t>
   </si>
   <si>
-    <t>P</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -117,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -133,6 +134,9 @@
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,23 +457,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="31.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="31.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.649999999999995" customFormat="1" s="1">
@@ -527,10 +531,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -549,7 +553,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -567,7 +573,7 @@
       <c r="Q4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -586,7 +592,7 @@
       <c r="Q5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -605,7 +611,7 @@
       <c r="Q6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -623,8 +629,8 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="134.25">
-      <c r="A8" s="6"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="7"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -642,8 +648,8 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="95.25">
-      <c r="A9" s="6"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="7"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -662,7 +668,7 @@
       <c r="Q9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="72.75">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -681,7 +687,7 @@
       <c r="Q10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="75">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -700,7 +706,7 @@
       <c r="Q11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="67.5">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -719,7 +725,7 @@
       <c r="Q12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="59.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -738,7 +744,7 @@
       <c r="Q13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="14.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -16755,42 +16761,42 @@
       <c r="Q856" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="16.5">
-      <c r="A857" s="7"/>
-      <c r="B857" s="7"/>
-      <c r="C857" s="7"/>
-      <c r="D857" s="7"/>
-      <c r="E857" s="7"/>
-      <c r="F857" s="7"/>
-      <c r="G857" s="7"/>
-      <c r="H857" s="7"/>
-      <c r="I857" s="7"/>
-      <c r="J857" s="7"/>
-      <c r="K857" s="7"/>
-      <c r="L857" s="7"/>
-      <c r="M857" s="7"/>
-      <c r="N857" s="7"/>
-      <c r="O857" s="7"/>
-      <c r="P857" s="7"/>
-      <c r="Q857" s="7"/>
+      <c r="A857" s="8"/>
+      <c r="B857" s="8"/>
+      <c r="C857" s="8"/>
+      <c r="D857" s="8"/>
+      <c r="E857" s="8"/>
+      <c r="F857" s="8"/>
+      <c r="G857" s="8"/>
+      <c r="H857" s="8"/>
+      <c r="I857" s="8"/>
+      <c r="J857" s="8"/>
+      <c r="K857" s="8"/>
+      <c r="L857" s="8"/>
+      <c r="M857" s="8"/>
+      <c r="N857" s="8"/>
+      <c r="O857" s="8"/>
+      <c r="P857" s="8"/>
+      <c r="Q857" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="15.75">
-      <c r="A858" s="7"/>
-      <c r="B858" s="7"/>
-      <c r="C858" s="7"/>
-      <c r="D858" s="7"/>
-      <c r="E858" s="7"/>
-      <c r="F858" s="7"/>
-      <c r="G858" s="7"/>
-      <c r="H858" s="7"/>
-      <c r="I858" s="7"/>
-      <c r="J858" s="7"/>
-      <c r="K858" s="7"/>
-      <c r="L858" s="7"/>
-      <c r="M858" s="7"/>
-      <c r="N858" s="7"/>
-      <c r="O858" s="7"/>
-      <c r="P858" s="7"/>
-      <c r="Q858" s="7"/>
+      <c r="A858" s="8"/>
+      <c r="B858" s="8"/>
+      <c r="C858" s="8"/>
+      <c r="D858" s="8"/>
+      <c r="E858" s="8"/>
+      <c r="F858" s="8"/>
+      <c r="G858" s="8"/>
+      <c r="H858" s="8"/>
+      <c r="I858" s="8"/>
+      <c r="J858" s="8"/>
+      <c r="K858" s="8"/>
+      <c r="L858" s="8"/>
+      <c r="M858" s="8"/>
+      <c r="N858" s="8"/>
+      <c r="O858" s="8"/>
+      <c r="P858" s="8"/>
+      <c r="Q858" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input_data/data_errors_2/3_cenarios_e_referencia_temporal/cenarios.xlsx
+++ b/input_data/data_errors_2/3_cenarios_e_referencia_temporal/cenarios.xlsx
@@ -1,68 +1,140 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="descricao"/>
+    <sheet name="descricao" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>nome</t>
+    <t xml:space="preserve">nome</t>
   </si>
   <si>
-    <t>descricao</t>
+    <t xml:space="preserve">descricao</t>
   </si>
   <si>
-    <t>simbolo</t>
+    <t xml:space="preserve">simbolo</t>
   </si>
   <si>
-    <t>Otimista</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Otimista</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">|</t>
+    </r>
   </si>
   <si>
-    <t>Este cenário representa uma visão mais 
+    <t xml:space="preserve">Este cenário representa uma visão mais 
 otimista, sendo baseado em um menor crescimento populacional, menor desmatamento, menor consumo, etc.</t>
   </si>
   <si>
-    <t>O</t>
+    <t xml:space="preserve">O</t>
   </si>
   <si>
-    <t>Pessimista</t>
+    <t xml:space="preserve">Pessimista</t>
   </si>
   <si>
-    <t>P</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Este cenário representa uma visão mais 
+otimista, sendo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">baseado em um menor crescimento populacional, menor desmatamento, menor consumo, etc.</t>
+    </r>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve">P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -80,403 +152,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffe699"/>
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC6C6C6"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFE699"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Q858"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" style="9" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="31.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="4" style="1" width="7.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.86"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.649999999999995" customFormat="1" s="1">
+    <row r="1" s="4" customFormat="true" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -501,11 +362,11 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="87" customFormat="1" s="1">
+    <row r="2" s="4" customFormat="true" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -526,15 +387,15 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="1">
+    <row r="3" s="4" customFormat="true" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -551,11 +412,9 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
+    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -572,9 +431,9 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -591,7 +450,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -610,7 +469,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -629,7 +488,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -648,7 +507,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -667,7 +526,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="72.75">
+    <row r="10" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -686,7 +545,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="75">
+    <row r="11" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -705,7 +564,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="67.5">
+    <row r="12" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -724,7 +583,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="59.25">
+    <row r="13" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -743,7 +602,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="14.25">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -762,7 +621,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="15" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -781,7 +640,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="16" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -800,7 +659,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="17" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -819,7 +678,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="18" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -838,7 +697,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="19" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -857,7 +716,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="20" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -876,7 +735,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="21" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -895,7 +754,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="22" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -914,7 +773,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="23" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -933,7 +792,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="24" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -952,7 +811,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="25" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -971,7 +830,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="26" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -990,7 +849,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="27" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1009,7 +868,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="28" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1028,7 +887,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="29" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1047,7 +906,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="30" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1066,7 +925,7 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="31" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1085,7 +944,7 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="32" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1104,7 +963,7 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="33" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1123,7 +982,7 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="34" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1142,7 +1001,7 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="35" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1161,7 +1020,7 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="36" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1180,7 +1039,7 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="37" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1199,7 +1058,7 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="38" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1218,7 +1077,7 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="39" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1237,7 +1096,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="40" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1256,7 +1115,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="41" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1275,7 +1134,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="42" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1294,7 +1153,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="43" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1313,7 +1172,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="44" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1332,7 +1191,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="45" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1351,7 +1210,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="46" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1370,7 +1229,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="47" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1389,7 +1248,7 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="48" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1408,7 +1267,7 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="49" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1427,7 +1286,7 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="50" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1446,7 +1305,7 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="51" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1465,7 +1324,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="52" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1484,7 +1343,7 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="53" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1503,7 +1362,7 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="54" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1522,7 +1381,7 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="55" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1541,7 +1400,7 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="56" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1560,7 +1419,7 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="57" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1579,7 +1438,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="58" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1598,7 +1457,7 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="59" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1617,7 +1476,7 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="60" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1636,7 +1495,7 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="61" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1655,7 +1514,7 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="62" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1674,7 +1533,7 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="63" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1693,7 +1552,7 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="64" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1712,7 +1571,7 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="65" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1731,7 +1590,7 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="66" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1750,7 +1609,7 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="67" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1769,7 +1628,7 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="68" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1788,7 +1647,7 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="69" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1807,7 +1666,7 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="70" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1826,7 +1685,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="71" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1845,7 +1704,7 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="72" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1864,7 +1723,7 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="73" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1883,7 +1742,7 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="74" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1902,7 +1761,7 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="75" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1921,7 +1780,7 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="76" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1940,7 +1799,7 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="77" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1959,7 +1818,7 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="78" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1978,7 +1837,7 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="79" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1997,7 +1856,7 @@
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="80" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2016,7 +1875,7 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="81" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2035,7 +1894,7 @@
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="82" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2054,7 +1913,7 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="83" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2073,7 +1932,7 @@
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="84" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2092,7 +1951,7 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="85" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2111,7 +1970,7 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="86" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2130,7 +1989,7 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="87" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2149,7 +2008,7 @@
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="88" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2168,7 +2027,7 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="89" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2187,7 +2046,7 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="90" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2206,7 +2065,7 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="91" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2225,7 +2084,7 @@
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="92" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2244,7 +2103,7 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="93" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2263,7 +2122,7 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="94" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2282,7 +2141,7 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="95" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2301,7 +2160,7 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="96" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2320,7 +2179,7 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="97" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2339,7 +2198,7 @@
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="98" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2358,7 +2217,7 @@
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="99" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2377,7 +2236,7 @@
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="100" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2396,7 +2255,7 @@
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="101" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2415,7 +2274,7 @@
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="102" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2434,7 +2293,7 @@
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="103" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2453,7 +2312,7 @@
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="104" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2472,7 +2331,7 @@
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="105" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2491,7 +2350,7 @@
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="106" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2510,7 +2369,7 @@
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="107" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2529,7 +2388,7 @@
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="108" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2548,7 +2407,7 @@
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="109" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2567,7 +2426,7 @@
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="110" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2586,7 +2445,7 @@
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="111" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2605,7 +2464,7 @@
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="112" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2624,7 +2483,7 @@
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="113" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2643,7 +2502,7 @@
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="114" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2662,7 +2521,7 @@
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="115" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2681,7 +2540,7 @@
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="116" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2700,7 +2559,7 @@
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="117" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2719,7 +2578,7 @@
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="118" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2738,7 +2597,7 @@
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="119" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2757,7 +2616,7 @@
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="120" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2776,7 +2635,7 @@
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="121" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2795,7 +2654,7 @@
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="122" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2814,7 +2673,7 @@
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="123" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2833,7 +2692,7 @@
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="124" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2852,7 +2711,7 @@
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="125" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2871,7 +2730,7 @@
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="126" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2890,7 +2749,7 @@
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="127" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2909,7 +2768,7 @@
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="128" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2928,7 +2787,7 @@
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="129" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2947,7 +2806,7 @@
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="130" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2966,7 +2825,7 @@
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="131" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2985,7 +2844,7 @@
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="132" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -3004,7 +2863,7 @@
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="133" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -3023,7 +2882,7 @@
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="134" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -3042,7 +2901,7 @@
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="135" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -3061,7 +2920,7 @@
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="136" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -3080,7 +2939,7 @@
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="137" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -3099,7 +2958,7 @@
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="138" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3118,7 +2977,7 @@
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="139" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3137,7 +2996,7 @@
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="140" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3156,7 +3015,7 @@
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="141" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3175,7 +3034,7 @@
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="142" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3194,7 +3053,7 @@
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="143" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3213,7 +3072,7 @@
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="144" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3232,7 +3091,7 @@
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="145" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3251,7 +3110,7 @@
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="146" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3270,7 +3129,7 @@
       <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="147" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3289,7 +3148,7 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="148" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3308,7 +3167,7 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="149" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3327,7 +3186,7 @@
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="150" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3346,7 +3205,7 @@
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="151" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3365,7 +3224,7 @@
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="152" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3384,7 +3243,7 @@
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="153" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3403,7 +3262,7 @@
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="154" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3422,7 +3281,7 @@
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="155" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3441,7 +3300,7 @@
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="156" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3460,7 +3319,7 @@
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="157" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3479,7 +3338,7 @@
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="158" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3498,7 +3357,7 @@
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="159" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3517,7 +3376,7 @@
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="160" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3536,7 +3395,7 @@
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="161" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3555,7 +3414,7 @@
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="162" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -3574,7 +3433,7 @@
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="163" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -3593,7 +3452,7 @@
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="164" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -3612,7 +3471,7 @@
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="165" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -3631,7 +3490,7 @@
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="166" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -3650,7 +3509,7 @@
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="167" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -3669,7 +3528,7 @@
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="168" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -3688,7 +3547,7 @@
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="169" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -3707,7 +3566,7 @@
       <c r="P169" s="3"/>
       <c r="Q169" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="170" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -3726,7 +3585,7 @@
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="171" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -3745,7 +3604,7 @@
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="172" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -3764,7 +3623,7 @@
       <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="173" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -3783,7 +3642,7 @@
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="174" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -3802,7 +3661,7 @@
       <c r="P174" s="3"/>
       <c r="Q174" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="175" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -3821,7 +3680,7 @@
       <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="176" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -3840,7 +3699,7 @@
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="177" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -3859,7 +3718,7 @@
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="178" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -3878,7 +3737,7 @@
       <c r="P178" s="3"/>
       <c r="Q178" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="179" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -3897,7 +3756,7 @@
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="180" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -3916,7 +3775,7 @@
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="181" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -3935,7 +3794,7 @@
       <c r="P181" s="3"/>
       <c r="Q181" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="182" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -3954,7 +3813,7 @@
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="183" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -3973,7 +3832,7 @@
       <c r="P183" s="3"/>
       <c r="Q183" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="184" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -3992,7 +3851,7 @@
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="185" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -4011,7 +3870,7 @@
       <c r="P185" s="3"/>
       <c r="Q185" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="186" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -4030,7 +3889,7 @@
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="187" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -4049,7 +3908,7 @@
       <c r="P187" s="3"/>
       <c r="Q187" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="188" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -4068,7 +3927,7 @@
       <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="189" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -4087,7 +3946,7 @@
       <c r="P189" s="3"/>
       <c r="Q189" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="190" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -4106,7 +3965,7 @@
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="191" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -4125,7 +3984,7 @@
       <c r="P191" s="3"/>
       <c r="Q191" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="192" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -4144,7 +4003,7 @@
       <c r="P192" s="3"/>
       <c r="Q192" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="193" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -4163,7 +4022,7 @@
       <c r="P193" s="3"/>
       <c r="Q193" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="194" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -4182,7 +4041,7 @@
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="195" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -4201,7 +4060,7 @@
       <c r="P195" s="3"/>
       <c r="Q195" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="196" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -4220,7 +4079,7 @@
       <c r="P196" s="3"/>
       <c r="Q196" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="197" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -4239,7 +4098,7 @@
       <c r="P197" s="3"/>
       <c r="Q197" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="198" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -4258,7 +4117,7 @@
       <c r="P198" s="3"/>
       <c r="Q198" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="199" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -4277,7 +4136,7 @@
       <c r="P199" s="3"/>
       <c r="Q199" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="200" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4296,7 +4155,7 @@
       <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="201" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -4315,7 +4174,7 @@
       <c r="P201" s="3"/>
       <c r="Q201" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="202" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -4334,7 +4193,7 @@
       <c r="P202" s="3"/>
       <c r="Q202" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="203" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -4353,7 +4212,7 @@
       <c r="P203" s="3"/>
       <c r="Q203" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="204" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -4372,7 +4231,7 @@
       <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="205" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -4391,7 +4250,7 @@
       <c r="P205" s="3"/>
       <c r="Q205" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="206" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -4410,7 +4269,7 @@
       <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="207" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -4429,7 +4288,7 @@
       <c r="P207" s="3"/>
       <c r="Q207" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="208" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -4448,7 +4307,7 @@
       <c r="P208" s="3"/>
       <c r="Q208" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="209" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -4467,7 +4326,7 @@
       <c r="P209" s="3"/>
       <c r="Q209" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="210" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -4486,7 +4345,7 @@
       <c r="P210" s="3"/>
       <c r="Q210" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="211" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -4505,7 +4364,7 @@
       <c r="P211" s="3"/>
       <c r="Q211" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="212" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -4524,7 +4383,7 @@
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="213" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -4543,7 +4402,7 @@
       <c r="P213" s="3"/>
       <c r="Q213" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="214" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -4562,7 +4421,7 @@
       <c r="P214" s="3"/>
       <c r="Q214" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="215" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -4581,7 +4440,7 @@
       <c r="P215" s="3"/>
       <c r="Q215" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="216" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -4600,7 +4459,7 @@
       <c r="P216" s="3"/>
       <c r="Q216" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="217" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -4619,7 +4478,7 @@
       <c r="P217" s="3"/>
       <c r="Q217" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="218" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -4638,7 +4497,7 @@
       <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="219" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -4657,7 +4516,7 @@
       <c r="P219" s="3"/>
       <c r="Q219" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="220" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -4676,7 +4535,7 @@
       <c r="P220" s="3"/>
       <c r="Q220" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="221" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -4695,7 +4554,7 @@
       <c r="P221" s="3"/>
       <c r="Q221" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="222" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -4714,7 +4573,7 @@
       <c r="P222" s="3"/>
       <c r="Q222" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="223" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -4733,7 +4592,7 @@
       <c r="P223" s="3"/>
       <c r="Q223" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="224" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -4752,7 +4611,7 @@
       <c r="P224" s="3"/>
       <c r="Q224" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="225" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -4771,7 +4630,7 @@
       <c r="P225" s="3"/>
       <c r="Q225" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="226" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -4790,7 +4649,7 @@
       <c r="P226" s="3"/>
       <c r="Q226" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="227" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -4809,7 +4668,7 @@
       <c r="P227" s="3"/>
       <c r="Q227" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="228" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -4828,7 +4687,7 @@
       <c r="P228" s="3"/>
       <c r="Q228" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="229" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -4847,7 +4706,7 @@
       <c r="P229" s="3"/>
       <c r="Q229" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="230" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -4866,7 +4725,7 @@
       <c r="P230" s="3"/>
       <c r="Q230" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="231" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -4885,7 +4744,7 @@
       <c r="P231" s="3"/>
       <c r="Q231" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="232" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -4904,7 +4763,7 @@
       <c r="P232" s="3"/>
       <c r="Q232" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="233" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -4923,7 +4782,7 @@
       <c r="P233" s="3"/>
       <c r="Q233" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="234" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -4942,7 +4801,7 @@
       <c r="P234" s="3"/>
       <c r="Q234" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="235" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -4961,7 +4820,7 @@
       <c r="P235" s="3"/>
       <c r="Q235" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="236" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -4980,7 +4839,7 @@
       <c r="P236" s="3"/>
       <c r="Q236" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="237" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -4999,7 +4858,7 @@
       <c r="P237" s="3"/>
       <c r="Q237" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="238" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -5018,7 +4877,7 @@
       <c r="P238" s="3"/>
       <c r="Q238" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="239" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -5037,7 +4896,7 @@
       <c r="P239" s="3"/>
       <c r="Q239" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="240" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -5056,7 +4915,7 @@
       <c r="P240" s="3"/>
       <c r="Q240" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="241" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -5075,7 +4934,7 @@
       <c r="P241" s="3"/>
       <c r="Q241" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="242" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -5094,7 +4953,7 @@
       <c r="P242" s="3"/>
       <c r="Q242" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="243" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -5113,7 +4972,7 @@
       <c r="P243" s="3"/>
       <c r="Q243" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="244" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -5132,7 +4991,7 @@
       <c r="P244" s="3"/>
       <c r="Q244" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="245" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -5151,7 +5010,7 @@
       <c r="P245" s="3"/>
       <c r="Q245" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="246" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -5170,7 +5029,7 @@
       <c r="P246" s="3"/>
       <c r="Q246" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="247" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -5189,7 +5048,7 @@
       <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="248" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -5208,7 +5067,7 @@
       <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="249" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -5227,7 +5086,7 @@
       <c r="P249" s="3"/>
       <c r="Q249" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="250" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -5246,7 +5105,7 @@
       <c r="P250" s="3"/>
       <c r="Q250" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="251" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -5265,7 +5124,7 @@
       <c r="P251" s="3"/>
       <c r="Q251" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="252" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -5284,7 +5143,7 @@
       <c r="P252" s="3"/>
       <c r="Q252" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="253" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -5303,7 +5162,7 @@
       <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="254" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -5322,7 +5181,7 @@
       <c r="P254" s="3"/>
       <c r="Q254" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="255" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -5341,7 +5200,7 @@
       <c r="P255" s="3"/>
       <c r="Q255" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="256" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -5360,7 +5219,7 @@
       <c r="P256" s="3"/>
       <c r="Q256" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="257" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -5379,7 +5238,7 @@
       <c r="P257" s="3"/>
       <c r="Q257" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="258" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -5398,7 +5257,7 @@
       <c r="P258" s="3"/>
       <c r="Q258" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="259" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -5417,7 +5276,7 @@
       <c r="P259" s="3"/>
       <c r="Q259" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="260" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -5436,7 +5295,7 @@
       <c r="P260" s="3"/>
       <c r="Q260" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="261" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -5455,7 +5314,7 @@
       <c r="P261" s="3"/>
       <c r="Q261" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="262" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -5474,7 +5333,7 @@
       <c r="P262" s="3"/>
       <c r="Q262" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="263" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -5493,7 +5352,7 @@
       <c r="P263" s="3"/>
       <c r="Q263" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="264" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -5512,7 +5371,7 @@
       <c r="P264" s="3"/>
       <c r="Q264" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="265" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -5531,7 +5390,7 @@
       <c r="P265" s="3"/>
       <c r="Q265" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="266" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -5550,7 +5409,7 @@
       <c r="P266" s="3"/>
       <c r="Q266" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="267" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -5569,7 +5428,7 @@
       <c r="P267" s="3"/>
       <c r="Q267" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="268" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -5588,7 +5447,7 @@
       <c r="P268" s="3"/>
       <c r="Q268" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="269" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -5607,7 +5466,7 @@
       <c r="P269" s="3"/>
       <c r="Q269" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="270" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -5626,7 +5485,7 @@
       <c r="P270" s="3"/>
       <c r="Q270" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="271" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -5645,7 +5504,7 @@
       <c r="P271" s="3"/>
       <c r="Q271" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="272" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -5664,7 +5523,7 @@
       <c r="P272" s="3"/>
       <c r="Q272" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="273" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -5683,7 +5542,7 @@
       <c r="P273" s="3"/>
       <c r="Q273" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="274" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -5702,7 +5561,7 @@
       <c r="P274" s="3"/>
       <c r="Q274" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="275" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -5721,7 +5580,7 @@
       <c r="P275" s="3"/>
       <c r="Q275" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="276" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -5740,7 +5599,7 @@
       <c r="P276" s="3"/>
       <c r="Q276" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="277" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -5759,7 +5618,7 @@
       <c r="P277" s="3"/>
       <c r="Q277" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="278" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -5778,7 +5637,7 @@
       <c r="P278" s="3"/>
       <c r="Q278" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="279" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -5797,7 +5656,7 @@
       <c r="P279" s="3"/>
       <c r="Q279" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="280" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -5816,7 +5675,7 @@
       <c r="P280" s="3"/>
       <c r="Q280" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="281" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -5835,7 +5694,7 @@
       <c r="P281" s="3"/>
       <c r="Q281" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="282" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -5854,7 +5713,7 @@
       <c r="P282" s="3"/>
       <c r="Q282" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="283" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -5873,7 +5732,7 @@
       <c r="P283" s="3"/>
       <c r="Q283" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="284" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -5892,7 +5751,7 @@
       <c r="P284" s="3"/>
       <c r="Q284" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="285" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -5911,7 +5770,7 @@
       <c r="P285" s="3"/>
       <c r="Q285" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="286" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -5930,7 +5789,7 @@
       <c r="P286" s="3"/>
       <c r="Q286" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="287" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -5949,7 +5808,7 @@
       <c r="P287" s="3"/>
       <c r="Q287" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="288" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -5968,7 +5827,7 @@
       <c r="P288" s="3"/>
       <c r="Q288" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="289" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -5987,7 +5846,7 @@
       <c r="P289" s="3"/>
       <c r="Q289" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="290" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -6006,7 +5865,7 @@
       <c r="P290" s="3"/>
       <c r="Q290" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="291" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -6025,7 +5884,7 @@
       <c r="P291" s="3"/>
       <c r="Q291" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="292" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -6044,7 +5903,7 @@
       <c r="P292" s="3"/>
       <c r="Q292" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="293" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -6063,7 +5922,7 @@
       <c r="P293" s="3"/>
       <c r="Q293" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="294" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -6082,7 +5941,7 @@
       <c r="P294" s="3"/>
       <c r="Q294" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="295" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -6101,7 +5960,7 @@
       <c r="P295" s="3"/>
       <c r="Q295" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="296" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -6120,7 +5979,7 @@
       <c r="P296" s="3"/>
       <c r="Q296" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="297" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -6139,7 +5998,7 @@
       <c r="P297" s="3"/>
       <c r="Q297" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="298" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -6158,7 +6017,7 @@
       <c r="P298" s="3"/>
       <c r="Q298" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="299" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -6177,7 +6036,7 @@
       <c r="P299" s="3"/>
       <c r="Q299" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="300" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -6196,7 +6055,7 @@
       <c r="P300" s="3"/>
       <c r="Q300" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="301" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -6215,7 +6074,7 @@
       <c r="P301" s="3"/>
       <c r="Q301" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="302" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -6234,7 +6093,7 @@
       <c r="P302" s="3"/>
       <c r="Q302" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="303" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -6253,7 +6112,7 @@
       <c r="P303" s="3"/>
       <c r="Q303" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="304" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -6272,7 +6131,7 @@
       <c r="P304" s="3"/>
       <c r="Q304" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="305" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -6291,7 +6150,7 @@
       <c r="P305" s="3"/>
       <c r="Q305" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="306" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -6310,7 +6169,7 @@
       <c r="P306" s="3"/>
       <c r="Q306" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="307" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -6329,7 +6188,7 @@
       <c r="P307" s="3"/>
       <c r="Q307" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="308" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -6348,7 +6207,7 @@
       <c r="P308" s="3"/>
       <c r="Q308" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="309" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -6367,7 +6226,7 @@
       <c r="P309" s="3"/>
       <c r="Q309" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="310" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -6386,7 +6245,7 @@
       <c r="P310" s="3"/>
       <c r="Q310" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="311" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -6405,7 +6264,7 @@
       <c r="P311" s="3"/>
       <c r="Q311" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="312" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -6424,7 +6283,7 @@
       <c r="P312" s="3"/>
       <c r="Q312" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="313" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -6443,7 +6302,7 @@
       <c r="P313" s="3"/>
       <c r="Q313" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="314" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -6462,7 +6321,7 @@
       <c r="P314" s="3"/>
       <c r="Q314" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="315" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -6481,7 +6340,7 @@
       <c r="P315" s="3"/>
       <c r="Q315" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="316" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -6500,7 +6359,7 @@
       <c r="P316" s="3"/>
       <c r="Q316" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="317" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -6519,7 +6378,7 @@
       <c r="P317" s="3"/>
       <c r="Q317" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="318" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -6538,7 +6397,7 @@
       <c r="P318" s="3"/>
       <c r="Q318" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="319" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -6557,7 +6416,7 @@
       <c r="P319" s="3"/>
       <c r="Q319" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="320" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -6576,7 +6435,7 @@
       <c r="P320" s="3"/>
       <c r="Q320" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="321" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -6595,7 +6454,7 @@
       <c r="P321" s="3"/>
       <c r="Q321" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="322" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -6614,7 +6473,7 @@
       <c r="P322" s="3"/>
       <c r="Q322" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="323" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -6633,7 +6492,7 @@
       <c r="P323" s="3"/>
       <c r="Q323" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="324" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -6652,7 +6511,7 @@
       <c r="P324" s="3"/>
       <c r="Q324" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="325" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -6671,7 +6530,7 @@
       <c r="P325" s="3"/>
       <c r="Q325" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="326" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -6690,7 +6549,7 @@
       <c r="P326" s="3"/>
       <c r="Q326" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="327" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -6709,7 +6568,7 @@
       <c r="P327" s="3"/>
       <c r="Q327" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="328" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -6728,7 +6587,7 @@
       <c r="P328" s="3"/>
       <c r="Q328" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="329" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -6747,7 +6606,7 @@
       <c r="P329" s="3"/>
       <c r="Q329" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="330" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -6766,7 +6625,7 @@
       <c r="P330" s="3"/>
       <c r="Q330" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="331" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -6785,7 +6644,7 @@
       <c r="P331" s="3"/>
       <c r="Q331" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="332" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -6804,7 +6663,7 @@
       <c r="P332" s="3"/>
       <c r="Q332" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="333" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -6823,7 +6682,7 @@
       <c r="P333" s="3"/>
       <c r="Q333" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="334" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -6842,7 +6701,7 @@
       <c r="P334" s="3"/>
       <c r="Q334" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="335" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -6861,7 +6720,7 @@
       <c r="P335" s="3"/>
       <c r="Q335" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="336" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -6880,7 +6739,7 @@
       <c r="P336" s="3"/>
       <c r="Q336" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="337" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -6899,7 +6758,7 @@
       <c r="P337" s="3"/>
       <c r="Q337" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="338" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -6918,7 +6777,7 @@
       <c r="P338" s="3"/>
       <c r="Q338" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="339" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -6937,7 +6796,7 @@
       <c r="P339" s="3"/>
       <c r="Q339" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="340" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -6956,7 +6815,7 @@
       <c r="P340" s="3"/>
       <c r="Q340" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="341" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -6975,7 +6834,7 @@
       <c r="P341" s="3"/>
       <c r="Q341" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="342" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -6994,7 +6853,7 @@
       <c r="P342" s="3"/>
       <c r="Q342" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="343" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -7013,7 +6872,7 @@
       <c r="P343" s="3"/>
       <c r="Q343" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="344" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -7032,7 +6891,7 @@
       <c r="P344" s="3"/>
       <c r="Q344" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="345" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -7051,7 +6910,7 @@
       <c r="P345" s="3"/>
       <c r="Q345" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="346" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -7070,7 +6929,7 @@
       <c r="P346" s="3"/>
       <c r="Q346" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="347" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -7089,7 +6948,7 @@
       <c r="P347" s="3"/>
       <c r="Q347" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="348" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -7108,7 +6967,7 @@
       <c r="P348" s="3"/>
       <c r="Q348" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="349" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -7127,7 +6986,7 @@
       <c r="P349" s="3"/>
       <c r="Q349" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="350" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -7146,7 +7005,7 @@
       <c r="P350" s="3"/>
       <c r="Q350" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="351" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -7165,7 +7024,7 @@
       <c r="P351" s="3"/>
       <c r="Q351" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="352" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -7184,7 +7043,7 @@
       <c r="P352" s="3"/>
       <c r="Q352" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="353" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -7203,7 +7062,7 @@
       <c r="P353" s="3"/>
       <c r="Q353" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="354" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -7222,7 +7081,7 @@
       <c r="P354" s="3"/>
       <c r="Q354" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="355" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -7241,7 +7100,7 @@
       <c r="P355" s="3"/>
       <c r="Q355" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="356" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -7260,7 +7119,7 @@
       <c r="P356" s="3"/>
       <c r="Q356" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="357" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -7279,7 +7138,7 @@
       <c r="P357" s="3"/>
       <c r="Q357" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="358" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -7298,7 +7157,7 @@
       <c r="P358" s="3"/>
       <c r="Q358" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="359" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -7317,7 +7176,7 @@
       <c r="P359" s="3"/>
       <c r="Q359" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="360" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -7336,7 +7195,7 @@
       <c r="P360" s="3"/>
       <c r="Q360" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="361" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -7355,7 +7214,7 @@
       <c r="P361" s="3"/>
       <c r="Q361" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="362" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -7374,7 +7233,7 @@
       <c r="P362" s="3"/>
       <c r="Q362" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="363" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -7393,7 +7252,7 @@
       <c r="P363" s="3"/>
       <c r="Q363" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="364" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -7412,7 +7271,7 @@
       <c r="P364" s="3"/>
       <c r="Q364" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="365" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -7431,7 +7290,7 @@
       <c r="P365" s="3"/>
       <c r="Q365" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="366" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -7450,7 +7309,7 @@
       <c r="P366" s="3"/>
       <c r="Q366" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="367" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -7469,7 +7328,7 @@
       <c r="P367" s="3"/>
       <c r="Q367" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="368" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -7488,7 +7347,7 @@
       <c r="P368" s="3"/>
       <c r="Q368" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="369" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -7507,7 +7366,7 @@
       <c r="P369" s="3"/>
       <c r="Q369" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="370" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -7526,7 +7385,7 @@
       <c r="P370" s="3"/>
       <c r="Q370" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="371" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -7545,7 +7404,7 @@
       <c r="P371" s="3"/>
       <c r="Q371" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="372" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -7564,7 +7423,7 @@
       <c r="P372" s="3"/>
       <c r="Q372" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="373" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -7583,7 +7442,7 @@
       <c r="P373" s="3"/>
       <c r="Q373" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="374" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -7602,7 +7461,7 @@
       <c r="P374" s="3"/>
       <c r="Q374" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="375" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -7621,7 +7480,7 @@
       <c r="P375" s="3"/>
       <c r="Q375" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="376" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -7640,7 +7499,7 @@
       <c r="P376" s="3"/>
       <c r="Q376" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="377" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -7659,7 +7518,7 @@
       <c r="P377" s="3"/>
       <c r="Q377" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="378" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -7678,7 +7537,7 @@
       <c r="P378" s="3"/>
       <c r="Q378" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="379" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -7697,7 +7556,7 @@
       <c r="P379" s="3"/>
       <c r="Q379" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="380" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -7716,7 +7575,7 @@
       <c r="P380" s="3"/>
       <c r="Q380" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="381" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -7735,7 +7594,7 @@
       <c r="P381" s="3"/>
       <c r="Q381" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="382" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -7754,7 +7613,7 @@
       <c r="P382" s="3"/>
       <c r="Q382" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="383" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -7773,7 +7632,7 @@
       <c r="P383" s="3"/>
       <c r="Q383" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="384" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -7792,7 +7651,7 @@
       <c r="P384" s="3"/>
       <c r="Q384" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="385" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -7811,7 +7670,7 @@
       <c r="P385" s="3"/>
       <c r="Q385" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="386" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -7830,7 +7689,7 @@
       <c r="P386" s="3"/>
       <c r="Q386" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="387" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -7849,7 +7708,7 @@
       <c r="P387" s="3"/>
       <c r="Q387" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="388" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -7868,7 +7727,7 @@
       <c r="P388" s="3"/>
       <c r="Q388" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="389" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -7887,7 +7746,7 @@
       <c r="P389" s="3"/>
       <c r="Q389" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="390" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -7906,7 +7765,7 @@
       <c r="P390" s="3"/>
       <c r="Q390" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="391" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -7925,7 +7784,7 @@
       <c r="P391" s="3"/>
       <c r="Q391" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="392" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -7944,7 +7803,7 @@
       <c r="P392" s="3"/>
       <c r="Q392" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="393" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -7963,7 +7822,7 @@
       <c r="P393" s="3"/>
       <c r="Q393" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="394" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -7982,7 +7841,7 @@
       <c r="P394" s="3"/>
       <c r="Q394" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="395" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -8001,7 +7860,7 @@
       <c r="P395" s="3"/>
       <c r="Q395" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="396" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -8020,7 +7879,7 @@
       <c r="P396" s="3"/>
       <c r="Q396" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="397" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -8039,7 +7898,7 @@
       <c r="P397" s="3"/>
       <c r="Q397" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="398" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -8058,7 +7917,7 @@
       <c r="P398" s="3"/>
       <c r="Q398" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="399" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -8077,7 +7936,7 @@
       <c r="P399" s="3"/>
       <c r="Q399" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="400" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -8096,7 +7955,7 @@
       <c r="P400" s="3"/>
       <c r="Q400" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="401" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -8115,7 +7974,7 @@
       <c r="P401" s="3"/>
       <c r="Q401" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="402" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -8134,7 +7993,7 @@
       <c r="P402" s="3"/>
       <c r="Q402" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="403" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -8153,7 +8012,7 @@
       <c r="P403" s="3"/>
       <c r="Q403" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="404" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -8172,7 +8031,7 @@
       <c r="P404" s="3"/>
       <c r="Q404" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="405" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -8191,7 +8050,7 @@
       <c r="P405" s="3"/>
       <c r="Q405" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="406" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -8210,7 +8069,7 @@
       <c r="P406" s="3"/>
       <c r="Q406" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="407" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -8229,7 +8088,7 @@
       <c r="P407" s="3"/>
       <c r="Q407" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="408" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -8248,7 +8107,7 @@
       <c r="P408" s="3"/>
       <c r="Q408" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="409" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -8267,7 +8126,7 @@
       <c r="P409" s="3"/>
       <c r="Q409" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="410" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -8286,7 +8145,7 @@
       <c r="P410" s="3"/>
       <c r="Q410" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="411" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -8305,7 +8164,7 @@
       <c r="P411" s="3"/>
       <c r="Q411" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="412" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -8324,7 +8183,7 @@
       <c r="P412" s="3"/>
       <c r="Q412" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="413" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -8343,7 +8202,7 @@
       <c r="P413" s="3"/>
       <c r="Q413" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="414" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -8362,7 +8221,7 @@
       <c r="P414" s="3"/>
       <c r="Q414" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="415" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -8381,7 +8240,7 @@
       <c r="P415" s="3"/>
       <c r="Q415" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="416" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -8400,7 +8259,7 @@
       <c r="P416" s="3"/>
       <c r="Q416" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="417" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -8419,7 +8278,7 @@
       <c r="P417" s="3"/>
       <c r="Q417" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="418" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -8438,7 +8297,7 @@
       <c r="P418" s="3"/>
       <c r="Q418" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="419" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -8457,7 +8316,7 @@
       <c r="P419" s="3"/>
       <c r="Q419" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="420" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -8476,7 +8335,7 @@
       <c r="P420" s="3"/>
       <c r="Q420" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="421" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -8495,7 +8354,7 @@
       <c r="P421" s="3"/>
       <c r="Q421" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="422" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -8514,7 +8373,7 @@
       <c r="P422" s="3"/>
       <c r="Q422" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="423" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -8533,7 +8392,7 @@
       <c r="P423" s="3"/>
       <c r="Q423" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="424" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -8552,7 +8411,7 @@
       <c r="P424" s="3"/>
       <c r="Q424" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="425" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -8571,7 +8430,7 @@
       <c r="P425" s="3"/>
       <c r="Q425" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="426" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -8590,7 +8449,7 @@
       <c r="P426" s="3"/>
       <c r="Q426" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="427" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -8609,7 +8468,7 @@
       <c r="P427" s="3"/>
       <c r="Q427" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="428" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -8628,7 +8487,7 @@
       <c r="P428" s="3"/>
       <c r="Q428" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="429" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -8647,7 +8506,7 @@
       <c r="P429" s="3"/>
       <c r="Q429" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="430" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -8666,7 +8525,7 @@
       <c r="P430" s="3"/>
       <c r="Q430" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="431" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -8685,7 +8544,7 @@
       <c r="P431" s="3"/>
       <c r="Q431" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="432" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -8704,7 +8563,7 @@
       <c r="P432" s="3"/>
       <c r="Q432" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="433" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -8723,7 +8582,7 @@
       <c r="P433" s="3"/>
       <c r="Q433" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="434" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -8742,7 +8601,7 @@
       <c r="P434" s="3"/>
       <c r="Q434" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="435" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -8761,7 +8620,7 @@
       <c r="P435" s="3"/>
       <c r="Q435" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="436" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -8780,7 +8639,7 @@
       <c r="P436" s="3"/>
       <c r="Q436" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="437" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -8799,7 +8658,7 @@
       <c r="P437" s="3"/>
       <c r="Q437" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="438" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -8818,7 +8677,7 @@
       <c r="P438" s="3"/>
       <c r="Q438" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="439" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -8837,7 +8696,7 @@
       <c r="P439" s="3"/>
       <c r="Q439" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="440" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -8856,7 +8715,7 @@
       <c r="P440" s="3"/>
       <c r="Q440" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="441" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -8875,7 +8734,7 @@
       <c r="P441" s="3"/>
       <c r="Q441" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="442" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -8894,7 +8753,7 @@
       <c r="P442" s="3"/>
       <c r="Q442" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="443" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -8913,7 +8772,7 @@
       <c r="P443" s="3"/>
       <c r="Q443" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="444" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -8932,7 +8791,7 @@
       <c r="P444" s="3"/>
       <c r="Q444" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="445" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -8951,7 +8810,7 @@
       <c r="P445" s="3"/>
       <c r="Q445" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="446" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -8970,7 +8829,7 @@
       <c r="P446" s="3"/>
       <c r="Q446" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="447" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -8989,7 +8848,7 @@
       <c r="P447" s="3"/>
       <c r="Q447" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="448" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -9008,7 +8867,7 @@
       <c r="P448" s="3"/>
       <c r="Q448" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="449" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -9027,7 +8886,7 @@
       <c r="P449" s="3"/>
       <c r="Q449" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="450" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -9046,7 +8905,7 @@
       <c r="P450" s="3"/>
       <c r="Q450" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="451" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -9065,7 +8924,7 @@
       <c r="P451" s="3"/>
       <c r="Q451" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="452" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -9084,7 +8943,7 @@
       <c r="P452" s="3"/>
       <c r="Q452" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="453" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -9103,7 +8962,7 @@
       <c r="P453" s="3"/>
       <c r="Q453" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="454" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -9122,7 +8981,7 @@
       <c r="P454" s="3"/>
       <c r="Q454" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="455" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -9141,7 +9000,7 @@
       <c r="P455" s="3"/>
       <c r="Q455" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="456" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -9160,7 +9019,7 @@
       <c r="P456" s="3"/>
       <c r="Q456" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="457" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -9179,7 +9038,7 @@
       <c r="P457" s="3"/>
       <c r="Q457" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="458" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -9198,7 +9057,7 @@
       <c r="P458" s="3"/>
       <c r="Q458" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="459" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -9217,7 +9076,7 @@
       <c r="P459" s="3"/>
       <c r="Q459" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="460" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -9236,7 +9095,7 @@
       <c r="P460" s="3"/>
       <c r="Q460" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="461" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -9255,7 +9114,7 @@
       <c r="P461" s="3"/>
       <c r="Q461" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="462" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -9274,7 +9133,7 @@
       <c r="P462" s="3"/>
       <c r="Q462" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="463" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -9293,7 +9152,7 @@
       <c r="P463" s="3"/>
       <c r="Q463" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="464" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -9312,7 +9171,7 @@
       <c r="P464" s="3"/>
       <c r="Q464" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="465" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -9331,7 +9190,7 @@
       <c r="P465" s="3"/>
       <c r="Q465" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="466" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -9350,7 +9209,7 @@
       <c r="P466" s="3"/>
       <c r="Q466" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="467" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -9369,7 +9228,7 @@
       <c r="P467" s="3"/>
       <c r="Q467" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="468" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -9388,7 +9247,7 @@
       <c r="P468" s="3"/>
       <c r="Q468" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="469" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -9407,7 +9266,7 @@
       <c r="P469" s="3"/>
       <c r="Q469" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="470" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -9426,7 +9285,7 @@
       <c r="P470" s="3"/>
       <c r="Q470" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="471" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -9445,7 +9304,7 @@
       <c r="P471" s="3"/>
       <c r="Q471" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="472" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -9464,7 +9323,7 @@
       <c r="P472" s="3"/>
       <c r="Q472" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="473" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -9483,7 +9342,7 @@
       <c r="P473" s="3"/>
       <c r="Q473" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="474" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -9502,7 +9361,7 @@
       <c r="P474" s="3"/>
       <c r="Q474" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="475" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -9521,7 +9380,7 @@
       <c r="P475" s="3"/>
       <c r="Q475" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="476" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -9540,7 +9399,7 @@
       <c r="P476" s="3"/>
       <c r="Q476" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="477" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -9559,7 +9418,7 @@
       <c r="P477" s="3"/>
       <c r="Q477" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="478" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -9578,7 +9437,7 @@
       <c r="P478" s="3"/>
       <c r="Q478" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="479" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -9597,7 +9456,7 @@
       <c r="P479" s="3"/>
       <c r="Q479" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="480" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -9616,7 +9475,7 @@
       <c r="P480" s="3"/>
       <c r="Q480" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="481" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -9635,7 +9494,7 @@
       <c r="P481" s="3"/>
       <c r="Q481" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="482" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -9654,7 +9513,7 @@
       <c r="P482" s="3"/>
       <c r="Q482" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="483" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -9673,7 +9532,7 @@
       <c r="P483" s="3"/>
       <c r="Q483" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="484" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -9692,7 +9551,7 @@
       <c r="P484" s="3"/>
       <c r="Q484" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="485" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -9711,7 +9570,7 @@
       <c r="P485" s="3"/>
       <c r="Q485" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="486" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -9730,7 +9589,7 @@
       <c r="P486" s="3"/>
       <c r="Q486" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="487" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -9749,7 +9608,7 @@
       <c r="P487" s="3"/>
       <c r="Q487" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="488" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -9768,7 +9627,7 @@
       <c r="P488" s="3"/>
       <c r="Q488" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="489" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -9787,7 +9646,7 @@
       <c r="P489" s="3"/>
       <c r="Q489" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="490" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -9806,7 +9665,7 @@
       <c r="P490" s="3"/>
       <c r="Q490" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="491" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -9825,7 +9684,7 @@
       <c r="P491" s="3"/>
       <c r="Q491" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="492" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -9844,7 +9703,7 @@
       <c r="P492" s="3"/>
       <c r="Q492" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="493" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -9863,7 +9722,7 @@
       <c r="P493" s="3"/>
       <c r="Q493" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="494" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -9882,7 +9741,7 @@
       <c r="P494" s="3"/>
       <c r="Q494" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="495" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -9901,7 +9760,7 @@
       <c r="P495" s="3"/>
       <c r="Q495" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="496" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -9920,7 +9779,7 @@
       <c r="P496" s="3"/>
       <c r="Q496" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="497" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -9939,7 +9798,7 @@
       <c r="P497" s="3"/>
       <c r="Q497" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="498" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -9958,7 +9817,7 @@
       <c r="P498" s="3"/>
       <c r="Q498" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="499" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -9977,7 +9836,7 @@
       <c r="P499" s="3"/>
       <c r="Q499" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="500" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -9996,7 +9855,7 @@
       <c r="P500" s="3"/>
       <c r="Q500" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="501" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -10015,7 +9874,7 @@
       <c r="P501" s="3"/>
       <c r="Q501" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="502" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -10034,7 +9893,7 @@
       <c r="P502" s="3"/>
       <c r="Q502" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="503" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -10053,7 +9912,7 @@
       <c r="P503" s="3"/>
       <c r="Q503" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="504" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -10072,7 +9931,7 @@
       <c r="P504" s="3"/>
       <c r="Q504" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="505" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -10091,7 +9950,7 @@
       <c r="P505" s="3"/>
       <c r="Q505" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="506" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -10110,7 +9969,7 @@
       <c r="P506" s="3"/>
       <c r="Q506" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="507" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -10129,7 +9988,7 @@
       <c r="P507" s="3"/>
       <c r="Q507" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="508" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -10148,7 +10007,7 @@
       <c r="P508" s="3"/>
       <c r="Q508" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="509" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -10167,7 +10026,7 @@
       <c r="P509" s="3"/>
       <c r="Q509" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="510" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -10186,7 +10045,7 @@
       <c r="P510" s="3"/>
       <c r="Q510" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="511" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -10205,7 +10064,7 @@
       <c r="P511" s="3"/>
       <c r="Q511" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="512" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -10224,7 +10083,7 @@
       <c r="P512" s="3"/>
       <c r="Q512" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="513" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -10243,7 +10102,7 @@
       <c r="P513" s="3"/>
       <c r="Q513" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="514" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -10262,7 +10121,7 @@
       <c r="P514" s="3"/>
       <c r="Q514" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="515" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -10281,7 +10140,7 @@
       <c r="P515" s="3"/>
       <c r="Q515" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="516" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -10300,7 +10159,7 @@
       <c r="P516" s="3"/>
       <c r="Q516" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="517" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -10319,7 +10178,7 @@
       <c r="P517" s="3"/>
       <c r="Q517" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="518" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -10338,7 +10197,7 @@
       <c r="P518" s="3"/>
       <c r="Q518" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="519" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -10357,7 +10216,7 @@
       <c r="P519" s="3"/>
       <c r="Q519" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="520" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -10376,7 +10235,7 @@
       <c r="P520" s="3"/>
       <c r="Q520" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="521" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -10395,7 +10254,7 @@
       <c r="P521" s="3"/>
       <c r="Q521" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="522" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -10414,7 +10273,7 @@
       <c r="P522" s="3"/>
       <c r="Q522" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="523" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -10433,7 +10292,7 @@
       <c r="P523" s="3"/>
       <c r="Q523" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="524" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -10452,7 +10311,7 @@
       <c r="P524" s="3"/>
       <c r="Q524" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="525" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -10471,7 +10330,7 @@
       <c r="P525" s="3"/>
       <c r="Q525" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="526" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -10490,7 +10349,7 @@
       <c r="P526" s="3"/>
       <c r="Q526" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="527" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -10509,7 +10368,7 @@
       <c r="P527" s="3"/>
       <c r="Q527" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="528" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -10528,7 +10387,7 @@
       <c r="P528" s="3"/>
       <c r="Q528" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="529" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -10547,7 +10406,7 @@
       <c r="P529" s="3"/>
       <c r="Q529" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="530" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -10566,7 +10425,7 @@
       <c r="P530" s="3"/>
       <c r="Q530" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="531" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -10585,7 +10444,7 @@
       <c r="P531" s="3"/>
       <c r="Q531" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="532" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -10604,7 +10463,7 @@
       <c r="P532" s="3"/>
       <c r="Q532" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="533" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -10623,7 +10482,7 @@
       <c r="P533" s="3"/>
       <c r="Q533" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="534" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -10642,7 +10501,7 @@
       <c r="P534" s="3"/>
       <c r="Q534" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="535" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -10661,7 +10520,7 @@
       <c r="P535" s="3"/>
       <c r="Q535" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="536" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -10680,7 +10539,7 @@
       <c r="P536" s="3"/>
       <c r="Q536" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="537" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -10699,7 +10558,7 @@
       <c r="P537" s="3"/>
       <c r="Q537" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="538" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -10718,7 +10577,7 @@
       <c r="P538" s="3"/>
       <c r="Q538" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="539" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -10737,7 +10596,7 @@
       <c r="P539" s="3"/>
       <c r="Q539" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="540" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -10756,7 +10615,7 @@
       <c r="P540" s="3"/>
       <c r="Q540" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="541" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -10775,7 +10634,7 @@
       <c r="P541" s="3"/>
       <c r="Q541" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="542" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -10794,7 +10653,7 @@
       <c r="P542" s="3"/>
       <c r="Q542" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="543" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -10813,7 +10672,7 @@
       <c r="P543" s="3"/>
       <c r="Q543" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="544" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -10832,7 +10691,7 @@
       <c r="P544" s="3"/>
       <c r="Q544" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="545" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -10851,7 +10710,7 @@
       <c r="P545" s="3"/>
       <c r="Q545" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="546" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -10870,7 +10729,7 @@
       <c r="P546" s="3"/>
       <c r="Q546" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="547" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -10889,7 +10748,7 @@
       <c r="P547" s="3"/>
       <c r="Q547" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="548" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -10908,7 +10767,7 @@
       <c r="P548" s="3"/>
       <c r="Q548" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="549" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -10927,7 +10786,7 @@
       <c r="P549" s="3"/>
       <c r="Q549" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="550" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -10946,7 +10805,7 @@
       <c r="P550" s="3"/>
       <c r="Q550" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="551" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -10965,7 +10824,7 @@
       <c r="P551" s="3"/>
       <c r="Q551" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="552" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -10984,7 +10843,7 @@
       <c r="P552" s="3"/>
       <c r="Q552" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="553" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -11003,7 +10862,7 @@
       <c r="P553" s="3"/>
       <c r="Q553" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="554" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -11022,7 +10881,7 @@
       <c r="P554" s="3"/>
       <c r="Q554" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="555" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -11041,7 +10900,7 @@
       <c r="P555" s="3"/>
       <c r="Q555" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="556" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -11060,7 +10919,7 @@
       <c r="P556" s="3"/>
       <c r="Q556" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="557" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -11079,7 +10938,7 @@
       <c r="P557" s="3"/>
       <c r="Q557" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="558" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -11098,7 +10957,7 @@
       <c r="P558" s="3"/>
       <c r="Q558" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="559" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -11117,7 +10976,7 @@
       <c r="P559" s="3"/>
       <c r="Q559" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="560" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -11136,7 +10995,7 @@
       <c r="P560" s="3"/>
       <c r="Q560" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="561" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -11155,7 +11014,7 @@
       <c r="P561" s="3"/>
       <c r="Q561" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="562" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -11174,7 +11033,7 @@
       <c r="P562" s="3"/>
       <c r="Q562" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="563" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -11193,7 +11052,7 @@
       <c r="P563" s="3"/>
       <c r="Q563" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="564" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -11212,7 +11071,7 @@
       <c r="P564" s="3"/>
       <c r="Q564" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="565" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -11231,7 +11090,7 @@
       <c r="P565" s="3"/>
       <c r="Q565" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="566" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -11250,7 +11109,7 @@
       <c r="P566" s="3"/>
       <c r="Q566" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="567" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -11269,7 +11128,7 @@
       <c r="P567" s="3"/>
       <c r="Q567" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="568" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -11288,7 +11147,7 @@
       <c r="P568" s="3"/>
       <c r="Q568" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="569" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -11307,7 +11166,7 @@
       <c r="P569" s="3"/>
       <c r="Q569" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="570" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -11326,7 +11185,7 @@
       <c r="P570" s="3"/>
       <c r="Q570" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="571" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -11345,7 +11204,7 @@
       <c r="P571" s="3"/>
       <c r="Q571" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="572" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -11364,7 +11223,7 @@
       <c r="P572" s="3"/>
       <c r="Q572" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="573" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -11383,7 +11242,7 @@
       <c r="P573" s="3"/>
       <c r="Q573" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="574" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -11402,7 +11261,7 @@
       <c r="P574" s="3"/>
       <c r="Q574" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="575" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -11421,7 +11280,7 @@
       <c r="P575" s="3"/>
       <c r="Q575" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="576" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -11440,7 +11299,7 @@
       <c r="P576" s="3"/>
       <c r="Q576" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="577" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -11459,7 +11318,7 @@
       <c r="P577" s="3"/>
       <c r="Q577" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="578" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -11478,7 +11337,7 @@
       <c r="P578" s="3"/>
       <c r="Q578" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="579" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -11497,7 +11356,7 @@
       <c r="P579" s="3"/>
       <c r="Q579" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="580" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -11516,7 +11375,7 @@
       <c r="P580" s="3"/>
       <c r="Q580" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="581" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -11535,7 +11394,7 @@
       <c r="P581" s="3"/>
       <c r="Q581" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="582" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -11554,7 +11413,7 @@
       <c r="P582" s="3"/>
       <c r="Q582" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="583" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -11573,7 +11432,7 @@
       <c r="P583" s="3"/>
       <c r="Q583" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="584" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -11592,7 +11451,7 @@
       <c r="P584" s="3"/>
       <c r="Q584" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="585" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -11611,7 +11470,7 @@
       <c r="P585" s="3"/>
       <c r="Q585" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="586" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -11630,7 +11489,7 @@
       <c r="P586" s="3"/>
       <c r="Q586" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="587" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -11649,7 +11508,7 @@
       <c r="P587" s="3"/>
       <c r="Q587" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="588" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -11668,7 +11527,7 @@
       <c r="P588" s="3"/>
       <c r="Q588" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="589" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -11687,7 +11546,7 @@
       <c r="P589" s="3"/>
       <c r="Q589" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="590" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -11706,7 +11565,7 @@
       <c r="P590" s="3"/>
       <c r="Q590" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="591" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -11725,7 +11584,7 @@
       <c r="P591" s="3"/>
       <c r="Q591" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="592" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -11744,7 +11603,7 @@
       <c r="P592" s="3"/>
       <c r="Q592" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="593" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -11763,7 +11622,7 @@
       <c r="P593" s="3"/>
       <c r="Q593" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="594" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -11782,7 +11641,7 @@
       <c r="P594" s="3"/>
       <c r="Q594" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="595" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -11801,7 +11660,7 @@
       <c r="P595" s="3"/>
       <c r="Q595" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="596" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -11820,7 +11679,7 @@
       <c r="P596" s="3"/>
       <c r="Q596" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="597" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -11839,7 +11698,7 @@
       <c r="P597" s="3"/>
       <c r="Q597" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="598" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -11858,7 +11717,7 @@
       <c r="P598" s="3"/>
       <c r="Q598" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="599" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -11877,7 +11736,7 @@
       <c r="P599" s="3"/>
       <c r="Q599" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="600" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -11896,7 +11755,7 @@
       <c r="P600" s="3"/>
       <c r="Q600" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="601" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -11915,7 +11774,7 @@
       <c r="P601" s="3"/>
       <c r="Q601" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="602" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -11934,7 +11793,7 @@
       <c r="P602" s="3"/>
       <c r="Q602" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="603" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -11953,7 +11812,7 @@
       <c r="P603" s="3"/>
       <c r="Q603" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="604" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -11972,7 +11831,7 @@
       <c r="P604" s="3"/>
       <c r="Q604" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="605" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -11991,7 +11850,7 @@
       <c r="P605" s="3"/>
       <c r="Q605" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="606" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -12010,7 +11869,7 @@
       <c r="P606" s="3"/>
       <c r="Q606" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="607" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -12029,7 +11888,7 @@
       <c r="P607" s="3"/>
       <c r="Q607" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="608" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -12048,7 +11907,7 @@
       <c r="P608" s="3"/>
       <c r="Q608" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="609" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -12067,7 +11926,7 @@
       <c r="P609" s="3"/>
       <c r="Q609" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="610" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -12086,7 +11945,7 @@
       <c r="P610" s="3"/>
       <c r="Q610" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="611" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -12105,7 +11964,7 @@
       <c r="P611" s="3"/>
       <c r="Q611" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="612" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -12124,7 +11983,7 @@
       <c r="P612" s="3"/>
       <c r="Q612" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="613" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -12143,7 +12002,7 @@
       <c r="P613" s="3"/>
       <c r="Q613" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="614" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -12162,7 +12021,7 @@
       <c r="P614" s="3"/>
       <c r="Q614" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="615" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -12181,7 +12040,7 @@
       <c r="P615" s="3"/>
       <c r="Q615" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="616" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -12200,7 +12059,7 @@
       <c r="P616" s="3"/>
       <c r="Q616" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="617" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -12219,7 +12078,7 @@
       <c r="P617" s="3"/>
       <c r="Q617" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="618" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -12238,7 +12097,7 @@
       <c r="P618" s="3"/>
       <c r="Q618" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="619" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -12257,7 +12116,7 @@
       <c r="P619" s="3"/>
       <c r="Q619" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="620" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -12276,7 +12135,7 @@
       <c r="P620" s="3"/>
       <c r="Q620" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="621" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -12295,7 +12154,7 @@
       <c r="P621" s="3"/>
       <c r="Q621" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="622" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -12314,7 +12173,7 @@
       <c r="P622" s="3"/>
       <c r="Q622" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="623" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -12333,7 +12192,7 @@
       <c r="P623" s="3"/>
       <c r="Q623" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="624" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -12352,7 +12211,7 @@
       <c r="P624" s="3"/>
       <c r="Q624" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="625" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -12371,7 +12230,7 @@
       <c r="P625" s="3"/>
       <c r="Q625" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="626" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -12390,7 +12249,7 @@
       <c r="P626" s="3"/>
       <c r="Q626" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="627" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -12409,7 +12268,7 @@
       <c r="P627" s="3"/>
       <c r="Q627" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="628" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -12428,7 +12287,7 @@
       <c r="P628" s="3"/>
       <c r="Q628" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="629" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -12447,7 +12306,7 @@
       <c r="P629" s="3"/>
       <c r="Q629" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="630" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -12466,7 +12325,7 @@
       <c r="P630" s="3"/>
       <c r="Q630" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="631" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -12485,7 +12344,7 @@
       <c r="P631" s="3"/>
       <c r="Q631" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="632" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -12504,7 +12363,7 @@
       <c r="P632" s="3"/>
       <c r="Q632" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="633" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -12523,7 +12382,7 @@
       <c r="P633" s="3"/>
       <c r="Q633" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="634" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -12542,7 +12401,7 @@
       <c r="P634" s="3"/>
       <c r="Q634" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="635" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -12561,7 +12420,7 @@
       <c r="P635" s="3"/>
       <c r="Q635" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="636" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -12580,7 +12439,7 @@
       <c r="P636" s="3"/>
       <c r="Q636" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="637" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -12599,7 +12458,7 @@
       <c r="P637" s="3"/>
       <c r="Q637" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="638" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -12618,7 +12477,7 @@
       <c r="P638" s="3"/>
       <c r="Q638" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="639" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -12637,7 +12496,7 @@
       <c r="P639" s="3"/>
       <c r="Q639" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="640" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -12656,7 +12515,7 @@
       <c r="P640" s="3"/>
       <c r="Q640" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="641" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -12675,7 +12534,7 @@
       <c r="P641" s="3"/>
       <c r="Q641" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="642" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -12694,7 +12553,7 @@
       <c r="P642" s="3"/>
       <c r="Q642" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="643" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -12713,7 +12572,7 @@
       <c r="P643" s="3"/>
       <c r="Q643" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="644" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -12732,7 +12591,7 @@
       <c r="P644" s="3"/>
       <c r="Q644" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="645" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -12751,7 +12610,7 @@
       <c r="P645" s="3"/>
       <c r="Q645" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="646" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -12770,7 +12629,7 @@
       <c r="P646" s="3"/>
       <c r="Q646" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="647" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -12789,7 +12648,7 @@
       <c r="P647" s="3"/>
       <c r="Q647" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="648" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -12808,7 +12667,7 @@
       <c r="P648" s="3"/>
       <c r="Q648" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="649" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -12827,7 +12686,7 @@
       <c r="P649" s="3"/>
       <c r="Q649" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="650" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -12846,7 +12705,7 @@
       <c r="P650" s="3"/>
       <c r="Q650" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="651" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -12865,7 +12724,7 @@
       <c r="P651" s="3"/>
       <c r="Q651" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="652" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -12884,7 +12743,7 @@
       <c r="P652" s="3"/>
       <c r="Q652" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="653" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -12903,7 +12762,7 @@
       <c r="P653" s="3"/>
       <c r="Q653" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="654" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -12922,7 +12781,7 @@
       <c r="P654" s="3"/>
       <c r="Q654" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="655" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -12941,7 +12800,7 @@
       <c r="P655" s="3"/>
       <c r="Q655" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="656" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -12960,7 +12819,7 @@
       <c r="P656" s="3"/>
       <c r="Q656" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="657" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -12979,7 +12838,7 @@
       <c r="P657" s="3"/>
       <c r="Q657" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="658" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -12998,7 +12857,7 @@
       <c r="P658" s="3"/>
       <c r="Q658" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="659" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -13017,7 +12876,7 @@
       <c r="P659" s="3"/>
       <c r="Q659" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="660" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -13036,7 +12895,7 @@
       <c r="P660" s="3"/>
       <c r="Q660" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="661" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -13055,7 +12914,7 @@
       <c r="P661" s="3"/>
       <c r="Q661" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="662" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -13074,7 +12933,7 @@
       <c r="P662" s="3"/>
       <c r="Q662" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="663" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -13093,7 +12952,7 @@
       <c r="P663" s="3"/>
       <c r="Q663" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="664" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -13112,7 +12971,7 @@
       <c r="P664" s="3"/>
       <c r="Q664" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="665" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -13131,7 +12990,7 @@
       <c r="P665" s="3"/>
       <c r="Q665" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="666" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -13150,7 +13009,7 @@
       <c r="P666" s="3"/>
       <c r="Q666" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="667" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -13169,7 +13028,7 @@
       <c r="P667" s="3"/>
       <c r="Q667" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="668" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -13188,7 +13047,7 @@
       <c r="P668" s="3"/>
       <c r="Q668" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="669" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -13207,7 +13066,7 @@
       <c r="P669" s="3"/>
       <c r="Q669" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="670" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -13226,7 +13085,7 @@
       <c r="P670" s="3"/>
       <c r="Q670" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="671" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -13245,7 +13104,7 @@
       <c r="P671" s="3"/>
       <c r="Q671" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="672" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -13264,7 +13123,7 @@
       <c r="P672" s="3"/>
       <c r="Q672" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="673" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -13283,7 +13142,7 @@
       <c r="P673" s="3"/>
       <c r="Q673" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="674" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -13302,7 +13161,7 @@
       <c r="P674" s="3"/>
       <c r="Q674" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="675" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -13321,7 +13180,7 @@
       <c r="P675" s="3"/>
       <c r="Q675" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="676" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -13340,7 +13199,7 @@
       <c r="P676" s="3"/>
       <c r="Q676" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="677" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -13359,7 +13218,7 @@
       <c r="P677" s="3"/>
       <c r="Q677" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="678" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -13378,7 +13237,7 @@
       <c r="P678" s="3"/>
       <c r="Q678" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="679" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -13397,7 +13256,7 @@
       <c r="P679" s="3"/>
       <c r="Q679" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="680" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -13416,7 +13275,7 @@
       <c r="P680" s="3"/>
       <c r="Q680" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="681" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -13435,7 +13294,7 @@
       <c r="P681" s="3"/>
       <c r="Q681" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="682" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -13454,7 +13313,7 @@
       <c r="P682" s="3"/>
       <c r="Q682" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="683" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -13473,7 +13332,7 @@
       <c r="P683" s="3"/>
       <c r="Q683" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="684" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -13492,7 +13351,7 @@
       <c r="P684" s="3"/>
       <c r="Q684" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="685" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -13511,7 +13370,7 @@
       <c r="P685" s="3"/>
       <c r="Q685" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="686" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -13530,7 +13389,7 @@
       <c r="P686" s="3"/>
       <c r="Q686" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="687" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -13549,7 +13408,7 @@
       <c r="P687" s="3"/>
       <c r="Q687" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="688" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -13568,7 +13427,7 @@
       <c r="P688" s="3"/>
       <c r="Q688" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="689" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -13587,7 +13446,7 @@
       <c r="P689" s="3"/>
       <c r="Q689" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="690" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -13606,7 +13465,7 @@
       <c r="P690" s="3"/>
       <c r="Q690" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="691" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -13625,7 +13484,7 @@
       <c r="P691" s="3"/>
       <c r="Q691" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="692" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -13644,7 +13503,7 @@
       <c r="P692" s="3"/>
       <c r="Q692" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="693" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -13663,7 +13522,7 @@
       <c r="P693" s="3"/>
       <c r="Q693" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="694" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -13682,7 +13541,7 @@
       <c r="P694" s="3"/>
       <c r="Q694" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="695" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -13701,7 +13560,7 @@
       <c r="P695" s="3"/>
       <c r="Q695" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="696" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -13720,7 +13579,7 @@
       <c r="P696" s="3"/>
       <c r="Q696" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="697" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -13739,7 +13598,7 @@
       <c r="P697" s="3"/>
       <c r="Q697" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="698" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -13758,7 +13617,7 @@
       <c r="P698" s="3"/>
       <c r="Q698" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="699" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -13777,7 +13636,7 @@
       <c r="P699" s="3"/>
       <c r="Q699" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="700" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -13796,7 +13655,7 @@
       <c r="P700" s="3"/>
       <c r="Q700" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="701" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -13815,7 +13674,7 @@
       <c r="P701" s="3"/>
       <c r="Q701" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="702" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -13834,7 +13693,7 @@
       <c r="P702" s="3"/>
       <c r="Q702" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="703" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -13853,7 +13712,7 @@
       <c r="P703" s="3"/>
       <c r="Q703" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="704" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -13872,7 +13731,7 @@
       <c r="P704" s="3"/>
       <c r="Q704" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="705" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -13891,7 +13750,7 @@
       <c r="P705" s="3"/>
       <c r="Q705" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="706" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -13910,7 +13769,7 @@
       <c r="P706" s="3"/>
       <c r="Q706" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="707" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -13929,7 +13788,7 @@
       <c r="P707" s="3"/>
       <c r="Q707" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="708" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -13948,7 +13807,7 @@
       <c r="P708" s="3"/>
       <c r="Q708" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="709" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -13967,7 +13826,7 @@
       <c r="P709" s="3"/>
       <c r="Q709" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="710" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -13986,7 +13845,7 @@
       <c r="P710" s="3"/>
       <c r="Q710" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="711" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -14005,7 +13864,7 @@
       <c r="P711" s="3"/>
       <c r="Q711" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="712" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -14024,7 +13883,7 @@
       <c r="P712" s="3"/>
       <c r="Q712" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="713" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -14043,7 +13902,7 @@
       <c r="P713" s="3"/>
       <c r="Q713" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="714" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -14062,7 +13921,7 @@
       <c r="P714" s="3"/>
       <c r="Q714" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="715" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -14081,7 +13940,7 @@
       <c r="P715" s="3"/>
       <c r="Q715" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="716" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -14100,7 +13959,7 @@
       <c r="P716" s="3"/>
       <c r="Q716" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="717" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -14119,7 +13978,7 @@
       <c r="P717" s="3"/>
       <c r="Q717" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="718" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -14138,7 +13997,7 @@
       <c r="P718" s="3"/>
       <c r="Q718" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="719" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -14157,7 +14016,7 @@
       <c r="P719" s="3"/>
       <c r="Q719" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="720" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -14176,7 +14035,7 @@
       <c r="P720" s="3"/>
       <c r="Q720" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="721" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -14195,7 +14054,7 @@
       <c r="P721" s="3"/>
       <c r="Q721" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="722" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -14214,7 +14073,7 @@
       <c r="P722" s="3"/>
       <c r="Q722" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="723" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -14233,7 +14092,7 @@
       <c r="P723" s="3"/>
       <c r="Q723" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="724" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -14252,7 +14111,7 @@
       <c r="P724" s="3"/>
       <c r="Q724" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="725" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -14271,7 +14130,7 @@
       <c r="P725" s="3"/>
       <c r="Q725" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="726" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -14290,7 +14149,7 @@
       <c r="P726" s="3"/>
       <c r="Q726" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="727" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -14309,7 +14168,7 @@
       <c r="P727" s="3"/>
       <c r="Q727" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="728" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -14328,7 +14187,7 @@
       <c r="P728" s="3"/>
       <c r="Q728" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="729" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -14347,7 +14206,7 @@
       <c r="P729" s="3"/>
       <c r="Q729" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="730" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -14366,7 +14225,7 @@
       <c r="P730" s="3"/>
       <c r="Q730" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="731" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -14385,7 +14244,7 @@
       <c r="P731" s="3"/>
       <c r="Q731" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="732" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -14404,7 +14263,7 @@
       <c r="P732" s="3"/>
       <c r="Q732" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="733" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -14423,7 +14282,7 @@
       <c r="P733" s="3"/>
       <c r="Q733" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="734" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -14442,7 +14301,7 @@
       <c r="P734" s="3"/>
       <c r="Q734" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="735" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -14461,7 +14320,7 @@
       <c r="P735" s="3"/>
       <c r="Q735" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="736" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -14480,7 +14339,7 @@
       <c r="P736" s="3"/>
       <c r="Q736" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="737" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -14499,7 +14358,7 @@
       <c r="P737" s="3"/>
       <c r="Q737" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="738" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -14518,7 +14377,7 @@
       <c r="P738" s="3"/>
       <c r="Q738" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="739" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -14537,7 +14396,7 @@
       <c r="P739" s="3"/>
       <c r="Q739" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="740" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -14556,7 +14415,7 @@
       <c r="P740" s="3"/>
       <c r="Q740" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="741" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -14575,7 +14434,7 @@
       <c r="P741" s="3"/>
       <c r="Q741" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="742" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -14594,7 +14453,7 @@
       <c r="P742" s="3"/>
       <c r="Q742" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="743" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -14613,7 +14472,7 @@
       <c r="P743" s="3"/>
       <c r="Q743" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="744" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -14632,7 +14491,7 @@
       <c r="P744" s="3"/>
       <c r="Q744" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="745" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -14651,7 +14510,7 @@
       <c r="P745" s="3"/>
       <c r="Q745" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="746" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -14670,7 +14529,7 @@
       <c r="P746" s="3"/>
       <c r="Q746" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="747" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -14689,7 +14548,7 @@
       <c r="P747" s="3"/>
       <c r="Q747" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="748" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -14708,7 +14567,7 @@
       <c r="P748" s="3"/>
       <c r="Q748" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="749" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -14727,7 +14586,7 @@
       <c r="P749" s="3"/>
       <c r="Q749" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="750" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -14746,7 +14605,7 @@
       <c r="P750" s="3"/>
       <c r="Q750" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="751" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -14765,7 +14624,7 @@
       <c r="P751" s="3"/>
       <c r="Q751" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="752" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -14784,7 +14643,7 @@
       <c r="P752" s="3"/>
       <c r="Q752" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="753" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -14803,7 +14662,7 @@
       <c r="P753" s="3"/>
       <c r="Q753" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="754" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -14822,7 +14681,7 @@
       <c r="P754" s="3"/>
       <c r="Q754" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="755" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -14841,7 +14700,7 @@
       <c r="P755" s="3"/>
       <c r="Q755" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="756" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -14860,7 +14719,7 @@
       <c r="P756" s="3"/>
       <c r="Q756" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="757" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -14879,7 +14738,7 @@
       <c r="P757" s="3"/>
       <c r="Q757" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="758" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -14898,7 +14757,7 @@
       <c r="P758" s="3"/>
       <c r="Q758" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="759" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -14917,7 +14776,7 @@
       <c r="P759" s="3"/>
       <c r="Q759" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="760" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -14936,7 +14795,7 @@
       <c r="P760" s="3"/>
       <c r="Q760" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="761" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -14955,7 +14814,7 @@
       <c r="P761" s="3"/>
       <c r="Q761" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="762" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -14974,7 +14833,7 @@
       <c r="P762" s="3"/>
       <c r="Q762" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="763" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -14993,7 +14852,7 @@
       <c r="P763" s="3"/>
       <c r="Q763" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="764" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -15012,7 +14871,7 @@
       <c r="P764" s="3"/>
       <c r="Q764" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="765" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -15031,7 +14890,7 @@
       <c r="P765" s="3"/>
       <c r="Q765" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="766" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -15050,7 +14909,7 @@
       <c r="P766" s="3"/>
       <c r="Q766" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="767" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -15069,7 +14928,7 @@
       <c r="P767" s="3"/>
       <c r="Q767" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="768" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -15088,7 +14947,7 @@
       <c r="P768" s="3"/>
       <c r="Q768" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="769" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -15107,7 +14966,7 @@
       <c r="P769" s="3"/>
       <c r="Q769" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="770" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -15126,7 +14985,7 @@
       <c r="P770" s="3"/>
       <c r="Q770" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="771" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -15145,7 +15004,7 @@
       <c r="P771" s="3"/>
       <c r="Q771" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="772" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -15164,7 +15023,7 @@
       <c r="P772" s="3"/>
       <c r="Q772" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="773" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -15183,7 +15042,7 @@
       <c r="P773" s="3"/>
       <c r="Q773" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="774" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -15202,7 +15061,7 @@
       <c r="P774" s="3"/>
       <c r="Q774" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="775" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -15221,7 +15080,7 @@
       <c r="P775" s="3"/>
       <c r="Q775" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="776" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -15240,7 +15099,7 @@
       <c r="P776" s="3"/>
       <c r="Q776" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="777" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -15259,7 +15118,7 @@
       <c r="P777" s="3"/>
       <c r="Q777" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="778" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -15278,7 +15137,7 @@
       <c r="P778" s="3"/>
       <c r="Q778" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="779" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -15297,7 +15156,7 @@
       <c r="P779" s="3"/>
       <c r="Q779" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="780" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -15316,7 +15175,7 @@
       <c r="P780" s="3"/>
       <c r="Q780" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="781" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -15335,7 +15194,7 @@
       <c r="P781" s="3"/>
       <c r="Q781" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="782" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -15354,7 +15213,7 @@
       <c r="P782" s="3"/>
       <c r="Q782" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="783" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -15373,7 +15232,7 @@
       <c r="P783" s="3"/>
       <c r="Q783" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="784" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -15392,7 +15251,7 @@
       <c r="P784" s="3"/>
       <c r="Q784" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="785" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -15411,7 +15270,7 @@
       <c r="P785" s="3"/>
       <c r="Q785" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="786" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -15430,7 +15289,7 @@
       <c r="P786" s="3"/>
       <c r="Q786" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="787" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -15449,7 +15308,7 @@
       <c r="P787" s="3"/>
       <c r="Q787" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="788" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -15468,7 +15327,7 @@
       <c r="P788" s="3"/>
       <c r="Q788" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="789" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -15487,7 +15346,7 @@
       <c r="P789" s="3"/>
       <c r="Q789" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="790" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -15506,7 +15365,7 @@
       <c r="P790" s="3"/>
       <c r="Q790" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="791" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -15525,7 +15384,7 @@
       <c r="P791" s="3"/>
       <c r="Q791" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="792" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -15544,7 +15403,7 @@
       <c r="P792" s="3"/>
       <c r="Q792" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="793" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -15563,7 +15422,7 @@
       <c r="P793" s="3"/>
       <c r="Q793" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="794" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -15582,7 +15441,7 @@
       <c r="P794" s="3"/>
       <c r="Q794" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="795" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -15601,7 +15460,7 @@
       <c r="P795" s="3"/>
       <c r="Q795" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="796" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -15620,7 +15479,7 @@
       <c r="P796" s="3"/>
       <c r="Q796" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="797" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -15639,7 +15498,7 @@
       <c r="P797" s="3"/>
       <c r="Q797" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="798" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -15658,7 +15517,7 @@
       <c r="P798" s="3"/>
       <c r="Q798" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="799" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -15677,7 +15536,7 @@
       <c r="P799" s="3"/>
       <c r="Q799" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="800" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -15696,7 +15555,7 @@
       <c r="P800" s="3"/>
       <c r="Q800" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="801" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -15715,7 +15574,7 @@
       <c r="P801" s="3"/>
       <c r="Q801" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="802" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -15734,7 +15593,7 @@
       <c r="P802" s="3"/>
       <c r="Q802" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="803" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -15753,7 +15612,7 @@
       <c r="P803" s="3"/>
       <c r="Q803" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="804" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -15772,7 +15631,7 @@
       <c r="P804" s="3"/>
       <c r="Q804" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="805" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -15791,7 +15650,7 @@
       <c r="P805" s="3"/>
       <c r="Q805" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="806" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -15810,7 +15669,7 @@
       <c r="P806" s="3"/>
       <c r="Q806" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="807" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -15829,7 +15688,7 @@
       <c r="P807" s="3"/>
       <c r="Q807" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="808" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -15848,7 +15707,7 @@
       <c r="P808" s="3"/>
       <c r="Q808" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="809" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -15867,7 +15726,7 @@
       <c r="P809" s="3"/>
       <c r="Q809" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="810" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -15886,7 +15745,7 @@
       <c r="P810" s="3"/>
       <c r="Q810" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="811" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -15905,7 +15764,7 @@
       <c r="P811" s="3"/>
       <c r="Q811" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="812" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -15924,7 +15783,7 @@
       <c r="P812" s="3"/>
       <c r="Q812" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="813" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -15943,7 +15802,7 @@
       <c r="P813" s="3"/>
       <c r="Q813" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="814" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -15962,7 +15821,7 @@
       <c r="P814" s="3"/>
       <c r="Q814" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="815" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -15981,7 +15840,7 @@
       <c r="P815" s="3"/>
       <c r="Q815" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="816" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -16000,7 +15859,7 @@
       <c r="P816" s="3"/>
       <c r="Q816" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="817" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -16019,7 +15878,7 @@
       <c r="P817" s="3"/>
       <c r="Q817" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="818" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -16038,7 +15897,7 @@
       <c r="P818" s="3"/>
       <c r="Q818" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="819" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -16057,7 +15916,7 @@
       <c r="P819" s="3"/>
       <c r="Q819" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="820" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -16076,7 +15935,7 @@
       <c r="P820" s="3"/>
       <c r="Q820" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="821" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -16095,7 +15954,7 @@
       <c r="P821" s="3"/>
       <c r="Q821" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="822" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -16114,7 +15973,7 @@
       <c r="P822" s="3"/>
       <c r="Q822" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="823" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -16133,7 +15992,7 @@
       <c r="P823" s="3"/>
       <c r="Q823" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="824" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -16152,7 +16011,7 @@
       <c r="P824" s="3"/>
       <c r="Q824" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="825" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -16171,7 +16030,7 @@
       <c r="P825" s="3"/>
       <c r="Q825" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="826" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -16190,7 +16049,7 @@
       <c r="P826" s="3"/>
       <c r="Q826" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="827" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -16209,7 +16068,7 @@
       <c r="P827" s="3"/>
       <c r="Q827" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="828" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -16228,7 +16087,7 @@
       <c r="P828" s="3"/>
       <c r="Q828" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="829" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -16247,7 +16106,7 @@
       <c r="P829" s="3"/>
       <c r="Q829" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="830" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -16266,7 +16125,7 @@
       <c r="P830" s="3"/>
       <c r="Q830" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="831" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -16285,7 +16144,7 @@
       <c r="P831" s="3"/>
       <c r="Q831" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="832" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -16304,7 +16163,7 @@
       <c r="P832" s="3"/>
       <c r="Q832" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="833" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -16323,7 +16182,7 @@
       <c r="P833" s="3"/>
       <c r="Q833" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="834" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -16342,7 +16201,7 @@
       <c r="P834" s="3"/>
       <c r="Q834" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="835" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -16361,7 +16220,7 @@
       <c r="P835" s="3"/>
       <c r="Q835" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="836" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -16380,7 +16239,7 @@
       <c r="P836" s="3"/>
       <c r="Q836" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="837" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -16399,7 +16258,7 @@
       <c r="P837" s="3"/>
       <c r="Q837" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="838" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -16418,7 +16277,7 @@
       <c r="P838" s="3"/>
       <c r="Q838" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="839" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -16437,7 +16296,7 @@
       <c r="P839" s="3"/>
       <c r="Q839" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="840" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -16456,7 +16315,7 @@
       <c r="P840" s="3"/>
       <c r="Q840" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="841" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -16475,7 +16334,7 @@
       <c r="P841" s="3"/>
       <c r="Q841" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="842" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -16494,7 +16353,7 @@
       <c r="P842" s="3"/>
       <c r="Q842" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="843" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -16513,7 +16372,7 @@
       <c r="P843" s="3"/>
       <c r="Q843" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="844" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -16532,7 +16391,7 @@
       <c r="P844" s="3"/>
       <c r="Q844" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="845" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -16551,7 +16410,7 @@
       <c r="P845" s="3"/>
       <c r="Q845" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="846" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -16570,7 +16429,7 @@
       <c r="P846" s="3"/>
       <c r="Q846" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="847" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -16589,7 +16448,7 @@
       <c r="P847" s="3"/>
       <c r="Q847" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="848" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -16608,7 +16467,7 @@
       <c r="P848" s="3"/>
       <c r="Q848" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="849" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -16627,7 +16486,7 @@
       <c r="P849" s="3"/>
       <c r="Q849" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="850" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -16646,7 +16505,7 @@
       <c r="P850" s="3"/>
       <c r="Q850" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="851" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -16665,7 +16524,7 @@
       <c r="P851" s="3"/>
       <c r="Q851" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="852" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -16684,7 +16543,7 @@
       <c r="P852" s="3"/>
       <c r="Q852" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="853" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -16703,7 +16562,7 @@
       <c r="P853" s="3"/>
       <c r="Q853" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="854" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -16722,7 +16581,7 @@
       <c r="P854" s="3"/>
       <c r="Q854" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="855" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -16741,7 +16600,7 @@
       <c r="P855" s="3"/>
       <c r="Q855" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row r="856" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -16760,7 +16619,7 @@
       <c r="P856" s="3"/>
       <c r="Q856" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="16.5">
+    <row r="857" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A857" s="8"/>
       <c r="B857" s="8"/>
       <c r="C857" s="8"/>
@@ -16779,7 +16638,7 @@
       <c r="P857" s="8"/>
       <c r="Q857" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="15.75">
+    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A858" s="8"/>
       <c r="B858" s="8"/>
       <c r="C858" s="8"/>
@@ -16799,6 +16658,12 @@
       <c r="Q858" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>